--- a/Analysis/server0s5p/client0.1s/p2pr600d0.1.xlsx
+++ b/Analysis/server0s5p/client0.1s/p2pr600d0.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Topology</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Graph: Latency between each pair of devices</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -2394,11 +2397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73118848"/>
-        <c:axId val="73120384"/>
+        <c:axId val="146804096"/>
+        <c:axId val="154588288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73118848"/>
+        <c:axId val="146804096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,7 +2411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73120384"/>
+        <c:crossAx val="154588288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2416,7 +2419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73120384"/>
+        <c:axId val="154588288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73118848"/>
+        <c:crossAx val="146804096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2773,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:VX104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="XET92" sqref="XET92"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30092,6 +30095,13 @@
       <c r="A82" t="s">
         <v>23</v>
       </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <f>AVERAGE(83:85)</f>
+        <v>1048.8302521008404</v>
+      </c>
     </row>
     <row r="83" spans="1:596" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -53520,7 +53530,7 @@
         <v>379</v>
       </c>
       <c r="E97">
-        <f t="shared" ref="E97:BO97" si="2439">FREQUENCY($B88:$VX88, E$96)</f>
+        <f t="shared" ref="E97:AY97" si="2439">FREQUENCY($B88:$VX88, E$96)</f>
         <v>527</v>
       </c>
       <c r="F97">
@@ -53721,7 +53731,7 @@
         <v>503</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:BO98" si="2440">FREQUENCY($B89:$VX89, E$96)</f>
+        <f t="shared" ref="E98:AY98" si="2440">FREQUENCY($B89:$VX89, E$96)</f>
         <v>526</v>
       </c>
       <c r="F98">
@@ -53922,7 +53932,7 @@
         <v>512</v>
       </c>
       <c r="E99">
-        <f t="shared" ref="E99:BO99" si="2442">FREQUENCY($B90:$VX90, E$96)</f>
+        <f t="shared" ref="E99:AY99" si="2442">FREQUENCY($B90:$VX90, E$96)</f>
         <v>527</v>
       </c>
       <c r="F99">
@@ -54123,7 +54133,7 @@
         <v>507</v>
       </c>
       <c r="E100">
-        <f t="shared" ref="E100:BO100" si="2443">FREQUENCY($B91:$VX91, E$96)</f>
+        <f t="shared" ref="E100:AY100" si="2443">FREQUENCY($B91:$VX91, E$96)</f>
         <v>527</v>
       </c>
       <c r="F100">
@@ -54324,7 +54334,7 @@
         <v>498</v>
       </c>
       <c r="E101">
-        <f t="shared" ref="E101:BO101" si="2444">FREQUENCY($B92:$VX92, E$96)</f>
+        <f t="shared" ref="E101:AY101" si="2444">FREQUENCY($B92:$VX92, E$96)</f>
         <v>527</v>
       </c>
       <c r="F101">
@@ -54525,7 +54535,7 @@
         <v>373</v>
       </c>
       <c r="E102">
-        <f t="shared" ref="E102:BO102" si="2445">FREQUENCY($B93:$VX93, E$96)</f>
+        <f t="shared" ref="E102:AY102" si="2445">FREQUENCY($B93:$VX93, E$96)</f>
         <v>523</v>
       </c>
       <c r="F102">
